--- a/anextour parser/chroma_res.xlsx
+++ b/anextour parser/chroma_res.xlsx
@@ -461,12 +461,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[201, 126, 44, 125, 125]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[0.8499346496638397, 0.8480577767426647, 0.841557510443678, 0.841359515086086, 0.8374451897509094]</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -481,12 +481,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[102, 100, 101, 105, 103]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[0.8697590731370906, 0.8688862856614149, 0.8654146181394362, 0.8648493340704959, 0.8641084662306593]</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -501,12 +501,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[156, 9, 58, 156, 44]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[0.890060198540424, 0.8890467986414038, 0.8890467986414038, 0.8646793347570272, 0.8636416055897042]</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -521,12 +521,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[214, 46, 119, 182, 119]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[0.8901482959905239, 0.8849550456107086, 0.8811236441999772, 0.8791737097169086, 0.8769451634917587]</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -541,12 +541,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[0, 0, 1, 0, 1]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[0.8817686595695879, 0.8758987204635059, 0.8656590066405265, 0.8655175091333633, 0.8600431603474046]</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -561,12 +561,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[156, 9, 156, 58, 47]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[0.82764863950331, 0.8257678153150871, 0.8113182319184606, 0.8028573574470199, 0.8018644830632247]</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -581,12 +581,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[189, 176, 173, 176, 172]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[0.8390635865868792, 0.8326183956821842, 0.826017113924029, 0.8205469166026486, 0.817699918059162]</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -601,12 +601,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[199, 199, 200, 198, 171]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[0.8366395105947751, 0.8231074008699582, 0.8212916724892604, 0.8145569432720076, 0.8118606618587959]</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -621,12 +621,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[170, 168, 170, 224, 168]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[0.860295788557379, 0.850102056946125, 0.8495230013944337, 0.8491524989858866, 0.8474805229687473]</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -641,12 +641,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[225, 171, 224, 225, 170]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[0.876407148433805, 0.8669497433394606, 0.8596149167563976, 0.8484123054956262, 0.8478027040154767]</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -661,12 +661,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[180, 181, 160, 161, 162]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[0.8470298361809082, 0.8406354743755173, 0.8323232307653503, 0.8323232307653503, 0.8323232307653503]</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -681,12 +681,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[131, 132, 32, 128, 129]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[0.8471993929524675, 0.8471993929524675, 0.8352862701194995, 0.8260226562346082, 0.8260226562346082]</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -701,12 +701,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[116, 110, 114, 115, 102]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[0.8994545308759718, 0.8719241883552316, 0.8719241883552316, 0.8719241883552316, 0.8604606459553292]</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -721,12 +721,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[114, 114, 109, 108, 116]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[0.871832234468493, 0.8710628858957751, 0.8598369674277773, 0.8526316791836124, 0.8384575359787169]</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -741,12 +741,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[47, 89, 59, 149, 151]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[0.8583614694816836, 0.8440755106876886, 0.8439549180173868, 0.8371199214475266, 0.8368750061108298]</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -761,12 +761,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>[220, 219, 222, 221, 177]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>[0.866374449393999, 0.8654707998885012, 0.8654707998885012, 0.8650190910395856, 0.8624426331166904]</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -781,12 +781,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>[191, 50, 138, 49, 69]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>[0.9224321708205653, 0.8957424155832385, 0.8885273703436434, 0.8824256762543121, 0.8821763565719459]</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -801,12 +801,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>[136, 135, 61, 83, 87]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>[0.9109626541048865, 0.9097055505910643, 0.9014646194485777, 0.8981341649425347, 0.8951412540095033]</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -821,12 +821,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>[187, 64, 65, 62, 144]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>[0.8688792366010014, 0.8614153458310859, 0.8614153458310859, 0.8502555241582652, 0.8502555241582652]</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -841,12 +841,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>[61, 145, 87, 88, 80]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>[0.913200393611368, 0.8972250468834426, 0.895909759645251, 0.895909759645251, 0.8951610524915913]</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -861,12 +861,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>[17, 16, 18, 19, 20]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>[0.8882649851382388, 0.8808376883695429, 0.8808376883695429, 0.8706217348324116, 0.854254922907161]</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -881,12 +881,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>[0, 125, 0, 116, 201]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>[0.8154859441068847, 0.8139959687183276, 0.8123900262760927, 0.8119615192672824, 0.8114601192839725]</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -901,12 +901,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>[109, 107, 101, 103, 111]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>[0.8476691195791215, 0.8349481470273209, 0.8345829551216861, 0.8344363367724288, 0.8336362104635859]</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -921,12 +921,12 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>[9, 58, 108, 109, 104]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>[0.8362769107203238, 0.8362769107203238, 0.8348275648937312, 0.8341149775892454, 0.8336884936291636]</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -941,12 +941,12 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>[196, 119, 46, 214, 119]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>[0.8598910945179773, 0.83991451038489, 0.8390809089416172, 0.8271231947429247, 0.8264650190198664]</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -961,12 +961,12 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 116, 1]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>[0.8345224111738002, 0.8253835519605012, 0.824998361375248, 0.8228950229003118, 0.8178897685382793]</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -981,12 +981,12 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>[9, 156, 47, 191, 82]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>[0.8244747921496214, 0.8198507771057941, 0.8192796662350472, 0.8111697485711569, 0.8095989776740042]</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1001,12 +1001,12 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>[176, 189, 174, 176, 198]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>[0.83368654433742, 0.8333232490399682, 0.8273951999665019, 0.8270184387509508, 0.8234694949822274]</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1021,12 +1021,12 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>[200, 199, 218, 199, 184]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>[0.8133490567405338, 0.8097048294840394, 0.8094540768088239, 0.8078441304159805, 0.8041780289451088]</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1041,12 +1041,12 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>[199, 198, 225, 184, 224]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>[0.848762166485115, 0.8471203254646611, 0.8448864898100231, 0.8439709759666695, 0.8427330492689196]</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1061,12 +1061,12 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>[184, 171, 224, 225, 225]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>[0.8379234511143868, 0.8308499771389398, 0.8290048407946935, 0.8281909113929633, 0.8268366383198991]</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1081,12 +1081,12 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>[180, 160, 161, 162, 82]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>[0.809430327059688, 0.8090595612333376, 0.8090595612333376, 0.8090595612333376, 0.8090588236634887]</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1101,12 +1101,12 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>[128, 129, 130, 131, 132]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>[0.8361156358044969, 0.8361156358044969, 0.8361156358044969, 0.8233380284250098, 0.8233380284250098]</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1121,12 +1121,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>[110, 114, 115, 116, 110]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>[0.8553400567423467, 0.8553400567423467, 0.8553400567423467, 0.8527956514977441, 0.8457014096626934]</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1141,12 +1141,12 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>[109, 107, 111, 101, 103]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>[0.8556664630106393, 0.8426010137292471, 0.8407686268066753, 0.8404258148775998, 0.8401025906963698]</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1161,12 +1161,12 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>[123, 90, 45, 90, 89]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>[0.8191702319428887, 0.8188318138227706, 0.8121892808366353, 0.8107931454062878, 0.8105731388570608]</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1181,12 +1181,12 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>[60, 60, 30, 31, 127]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>[0.8274254403303084, 0.8267639982264906, 0.8242379479344144, 0.8242379479344144, 0.8232372974570688]</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1201,12 +1201,12 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>[49, 120, 50, 138, 56]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>[0.8284620947529945, 0.8247129745272685, 0.8235695516005923, 0.8229726995421174, 0.8217057442024556]</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1221,12 +1221,12 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>[21, 22, 12, 135, 136]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>[0.8432972375197986, 0.8432972375197986, 0.8372548651197463, 0.8353142450901986, 0.8352434594581246]</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1241,12 +1241,12 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>[62, 64, 65, 144, 73]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>[0.8116559335421543, 0.8096332641352679, 0.8096332641352679, 0.8096332641352679, 0.8053760320406067]</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1261,12 +1261,12 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>[87, 88, 65]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>[0.8055041795335041, 0.8055041795335041, 0.8052087722722913]</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1281,12 +1281,12 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>[17, 16, 20, 18, 20]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>[0.8354709470729621, 0.8349936340135763, 0.834184488279152, 0.8324795007429165, 0.8319620112001876]</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1296,17 +1296,17 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>есть ли тур по лен области с посещением Петергофа и Кронштадта?</t>
+          <t>Подумываем о поездке с детьми по Ленинградской области. Есть ли варианты, включающие Петергоф и Кронштадт?</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>[6, 125, 8, 126, 201]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>[0.8139288709354983, 0.8095131245435876, 0.8078794494750325, 0.8059211172323981, 0.8018924053503631]</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1316,17 +1316,17 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Хотелось бы посмотреть Псков и Пушкинские горы. Есть ли такой тур?</t>
+          <t>Очень интересно посмотреть Псков и Пушкинские горы. Возможно ли это в рамках организованного тура?</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>[105, 7, 100, 102, 107]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>[0.8234786513850664, 0.8206851161189158, 0.8169552886130957, 0.8169552886130957, 0.8108509287355962]</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1336,17 +1336,17 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Что посмотреть в Карелии за 3 дня? Хочется Кивач, Марциальные воды и Петрозаводск.</t>
+          <t>Планируем короткую поездку в Карелию на три дня. Что посоветуете, чтобы успеть увидеть Кивач, Марциальные воды и Петрозаводск?</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>[156, 9, 156, 9, 58]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>[0.8614574716061726, 0.8464614543186024, 0.8438994422280344, 0.839082131200224, 0.839082131200224]</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1361,12 +1361,12 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>[119, 119, 213, 213, 196]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>[0.837278435744776, 0.828959174684332, 0.8248096910078889, 0.8247390739632089, 0.8229472217721925]</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1376,7 +1376,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Хотелось бы посмотреть на Москву. Что можете предложить?</t>
+          <t>Давно мечтаю побывать в Москве. Что можете предложить для первого знакомства с городом?</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1396,17 +1396,17 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Есть туры в Карелию, где можно посетить центр шунгита?</t>
+          <t xml:space="preserve">Насколько реально найти туры в Карелию, чтобы побывать в центре шунгита? </t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>[156, 9]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>[0.8058299746724933, 0.8052201097745407]</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1416,7 +1416,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Хочу посмотреть на морских животных в Мурманске. Что можете подсказать?</t>
+          <t>Заинтересовалась морскими животными в районе Мурманска. Какие экскурсии или туры вы можете порекомендовать?</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1441,12 +1441,12 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>[134]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>[0.8000458676234038]</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1456,17 +1456,17 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Покажите мне туры по Сахалину. Что обычно люди посещают в рамках этих туров?</t>
+          <t>Расскажите, пожалуйста, о ваших турах по Сахалину. Что обычно входит в обязательную программу для туристов?</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>[225]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>[0.802757448342625]</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1476,7 +1476,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>хочу посетить Сахалин, есть ли возможность посетить и Курильские острова в рамках одного тура?</t>
+          <t>Очень хочу посетить Сахалин, а если повезёт, то и Курилы! Реально ли это объединить в одном туре?</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1496,17 +1496,17 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>ищу санаторий, чтобы подтянуть свое здоровье. Есть ли у вас предложения по Калининградской области?</t>
+          <t>Присматриваю санаторий для оздоровления. Что можете предложить в Калининградской области?</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>[180, 181]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>[0.8277095206259839, 0.8215636671761254]</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1516,17 +1516,17 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>что можно посетить в Калининграде, кроме самого города?</t>
+          <t>Помимо самого Калининграда, что стоит увидеть в области? Какие интересные места вы рекомендуете?</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>[32, 34, 132]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>[0.8121718109679276, 0.8099858435964857, 0.8067691750447101]</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1536,17 +1536,17 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Хочу посетить Великий Новгород. Ваши предложения?</t>
+          <t>В планах посещение Великого Новгорода. Какие у вас есть предложения для знакомства с этим городом?</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>[110, 114, 115, 108, 117]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>[0.8119695060950752, 0.8119695060950752, 0.8119695060950752, 0.8091378700778709, 0.8091378700778709]</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1561,12 +1561,12 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>[114, 109]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>[0.8135474419564747, 0.8073659954930485]</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Какие туры в Хакасию у вас есть, чтобы увидеть природу?</t>
+          <t>Хочу увидеть природу Хакасии! Какие у вас есть туры по этому региону?</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -1601,12 +1601,12 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>[60, 164]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>[0.8026337684156697, 0.8000368692712467]</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1616,17 +1616,17 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Что у вас есть по турам с посещением Байкала?</t>
+          <t>Какие варианты у вас есть для посещения Байкала? Что включают в себя такие туры?</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>[56, 137, 122]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>[0.8146542814186435, 0.8128222843544204, 0.8104481523778018]</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1636,7 +1636,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Хочу погулять по Грозному. Что у вас есть?</t>
+          <t>Хочу погулять по Грозному. Что интересного вы можете мне предложить?</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -1656,17 +1656,17 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Интересует посещение курорта Домбай. На что можно посмотреть там дополнительно?</t>
+          <t xml:space="preserve"> Планирую поездку на курорт Домбай. Что интересного, кроме курорта, там можно посетить?</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>[134]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>[0.8132649948511789]</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1681,12 +1681,12 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>[133, 146, 87, 88]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>[0.8049257140376921, 0.8036241350619787, 0.8004122712509332, 0.8004122712509332]</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1761,12 +1761,12 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>[122, 139]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>[0.8044514987716718, 0.8031112289890253]</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1821,12 +1821,12 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>[125]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>[0.8011676270699455]</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1881,12 +1881,12 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>[84, 83, 70]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>[0.8086017621648123, 0.8043151115698906, 0.8039825097148668]</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1901,12 +1901,12 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>[78, 146, 2]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>[0.821267395904518, 0.821267395904518, 0.812197752353186]</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1921,12 +1921,12 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>[56]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>[0.802296804361825]</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
